--- a/doc/1.0 SAUGO Agent Settlement System-20160822.xlsx
+++ b/doc/1.0 SAUGO Agent Settlement System-20160822.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
   <si>
     <t>开始时间</t>
   </si>
@@ -3141,6 +3141,131 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>xin x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售记录管理</t>
+    <rPh sb="0" eb="1">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji lu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信里面提供一个条码上传并解析的功能，（不上传手则工输入区间起止，自动计算数量），同时代理可以录入客户信息，手机号码，销售时间等；方便代理以后查询自己的销售记录，跟踪客户。</t>
+    <rPh sb="10" eb="11">
+      <t>shang c</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jie xi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>d</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gong n</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shang ch</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shou gong</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>qu jian</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>qi zhi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zi dong</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ji suan</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shu l</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>tong shi</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>dai li</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>lu ru</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ke h</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>xin x</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>shou ji</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>hao m</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>shi j</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>fang b</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>dai li</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>yi h</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>cha x</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>zi j</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>d</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ji lu</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>gen z</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ke h</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3226,7 +3351,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3236,6 +3361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3299,7 +3430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3336,6 +3467,21 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="30" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -3355,25 +3501,214 @@
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="30">
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
       </font>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="40" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="40" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3393,36 +3728,6 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3559,214 +3864,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="40" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="40" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="18"/>
         <color theme="1"/>
         <name val="华文宋体"/>
@@ -3904,32 +4001,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:B12"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="名词" dataDxfId="31"/>
-    <tableColumn id="2" name="解释" dataDxfId="30"/>
+    <tableColumn id="1" name="名词" dataDxfId="27"/>
+    <tableColumn id="2" name="解释" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L29" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L29" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:L29"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="优先级" dataDxfId="27"/>
-    <tableColumn id="12" name="应用" dataDxfId="26"/>
-    <tableColumn id="9" name="角色" dataDxfId="25"/>
-    <tableColumn id="2" name="功能" dataDxfId="24"/>
-    <tableColumn id="3" name="内容" dataDxfId="23"/>
-    <tableColumn id="8" name="修改意见" dataDxfId="22"/>
-    <tableColumn id="4" name="需求确认人" dataDxfId="21"/>
-    <tableColumn id="7" name="状态" dataDxfId="20"/>
-    <tableColumn id="10" name="人日" dataDxfId="19"/>
-    <tableColumn id="5" name="开始时间" dataDxfId="18"/>
-    <tableColumn id="6" name="结束时间" dataDxfId="17"/>
-    <tableColumn id="11" name="备注" dataDxfId="16"/>
+    <tableColumn id="1" name="优先级" dataDxfId="11"/>
+    <tableColumn id="12" name="应用" dataDxfId="10"/>
+    <tableColumn id="9" name="角色" dataDxfId="9"/>
+    <tableColumn id="2" name="功能" dataDxfId="8"/>
+    <tableColumn id="3" name="内容" dataDxfId="7"/>
+    <tableColumn id="8" name="修改意见" dataDxfId="6"/>
+    <tableColumn id="4" name="需求确认人" dataDxfId="5"/>
+    <tableColumn id="7" name="状态" dataDxfId="4"/>
+    <tableColumn id="10" name="人日" dataDxfId="3"/>
+    <tableColumn id="5" name="开始时间" dataDxfId="2"/>
+    <tableColumn id="6" name="结束时间" dataDxfId="1"/>
+    <tableColumn id="11" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4338,8 +4435,8 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4469,7 +4566,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="69" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="46" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -4493,7 +4590,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="46" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -4517,7 +4614,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="92" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="69" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -4541,7 +4638,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="115" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="69" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -4567,7 +4664,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="46" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="23" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
@@ -4715,7 +4812,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="46" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="23" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
@@ -4739,7 +4836,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" ht="46" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="23" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -4787,7 +4884,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="69" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="46" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -4811,7 +4908,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="46" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="23" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -4907,7 +5004,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="92" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="69" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
@@ -4955,7 +5052,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="46" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="23" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>35</v>
       </c>
@@ -4999,19 +5096,23 @@
       <c r="K26" s="8"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="5"/>
+    <row r="27" spans="1:12" s="16" customFormat="1" ht="92" x14ac:dyDescent="0.15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="23" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
@@ -5044,50 +5145,50 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H1:H11 H16:H1048576 H13:H14">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>"未开始"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H11 H16:H1048576 H13:H14">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>"拒绝"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>"未开始"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"拒绝"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"未开始"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"拒绝"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/1.0 SAUGO Agent Settlement System-20160822.xlsx
+++ b/doc/1.0 SAUGO Agent Settlement System-20160822.xlsx
@@ -15,8 +15,9 @@
     <sheet name="名词解释" sheetId="10" r:id="rId1"/>
     <sheet name="1.0" sheetId="2" r:id="rId2"/>
     <sheet name="讨论原稿" sheetId="11" r:id="rId3"/>
+    <sheet name="人日合计" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,19 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
-  <si>
-    <t>开始时间</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
   <si>
     <t>状态</t>
   </si>
   <si>
     <t>人日</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -827,29 +821,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需求确认人</t>
-    <rPh sb="0" eb="1">
-      <t>xu q</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>que ren</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ren</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改意见</t>
-    <rPh sb="0" eb="1">
-      <t>xiu g</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi j</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>登录</t>
     <rPh sb="0" eb="1">
       <t>deng l</t>
@@ -887,58 +858,6 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>deng lu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码为随机数字，以防止未修改初始密码的泄露恶意查看他人销售；</t>
-    <rPh sb="0" eb="1">
-      <t>mi m</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>sui ji</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu zi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fang zhi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>xiu g</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>chu shi</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>mi m</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>d</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>xie l</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>e' yi</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>cha k</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ta ren</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>xiao s</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1193,168 +1112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>配置产品佣金金额，目前只有三层；［录入数据包括：产品（选择已配置的产品），层级（1～3），酬金额度（30元、10元）］</t>
-    <rPh sb="0" eb="1">
-      <t>pei zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chan p</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yong jin</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jin' e</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>mu q</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>you</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>san c</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>lu ru</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>shu j</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>bao k</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>chan p</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>xuan z</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>pei zhi</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>d</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>chan p</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ceng ji</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>chou jin</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>e' du</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>yuan</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>yuan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择时间短、下级层级、下级代理商，查询订单清单，清单结果如上22</t>
-    <rPh sb="0" eb="1">
-      <t>xuan z</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi j</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>duan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xia ji</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ceng ji</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xia ji</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>dai li</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>shang</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>cha x</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ding d</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>qing d</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>qing d</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>jie g</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ru</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>shang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询下级所有代理商的销售清单；查询结果如上22字段</t>
-    <rPh sb="0" eb="1">
-      <t>cha x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xia ji</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>suo you</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>dai li</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>d</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xiao shou</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>qing d</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>cha x</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>jie g</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ru</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>shang</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>zi duan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>清单数据可以导出excel，下同</t>
     <rPh sb="0" eb="1">
       <t>qing d</t>
@@ -1375,163 +1132,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>品配置，新增</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>品名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，代</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>品迭代），如美</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>肤仪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(I)、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品数量选择配置</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>chan p</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pei zhi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xin z</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>chan p</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ming c</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>dai h</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>chan p</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>die d</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ru</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>mei f y</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>根据任意</t>
     </r>
     <r>
@@ -2498,356 +2098,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>维护</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>H5代理商用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户帐号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>［</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>包括：手机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，姓名，上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>代理商（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>），收</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>货地址、身份证号、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>注</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>册时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>（系</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>）、身份证正反面照片上传、银行账户、开户行、户名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>］</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>wei h</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dai li s</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yong h</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zhang hao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xin x</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>bao k</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>shou ji</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>hao m</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>xing m</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>shang ji</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>dai l s</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>xuan z</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>zhu c</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>shi j</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>xi t</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>shen f z</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>zheng f</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>mian</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>zhao p</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>shang c</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>yin h</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>zhang h</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>kai h</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>hang</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>hu ming</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对代理商提交的订单进行审核确认，审核订单记录提交的打款水单和产品类型、产品总额、产品防伪串号输入起止11位的数值；</t>
-    <rPh sb="0" eb="1">
-      <t>dui</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dai l s</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ti j</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>d</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ding d</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jin x</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shen h</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>que ren</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>shen h</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ding d</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ji lu</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ti j</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>d</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>da kuan</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>shui dan</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>he</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>chan p</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>lei x</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>chan p</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>zong e</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>chan p</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>fang wei</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>chuan</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>shu r</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>qi zhi</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>d</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>shu zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>后台</t>
     </r>
     <r>
@@ -3030,117 +2280,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>cha x</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询所有的订单，查询字段包括代理商、订单起止时间、产品、订单状态、防伪串号</t>
-    <rPh sb="0" eb="1">
-      <t>cha x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>suo you</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>d</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ding d</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>cha x</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zi d</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bao k</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>dai l s</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ding d</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>qi zhi</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>shi j</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>chan p</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ding d</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>zhuang t</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>fang wei</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>chuan hao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级代理商建立下级代理商的账号，［包括：手机号码，姓名，上级代理商（选择），收货地址、身份证号、注册时间（系统）、身份证正反面照片上传、银行账户、开户行、户名</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询自己录入的订单，查询其审核状态和串码信息</t>
-    <rPh sb="0" eb="1">
-      <t>cha x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi j</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>lu ru</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>d</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ding d</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>cha x</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>qi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shen h</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>zhuang t</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>he</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>chuan</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ma</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>xin x</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3266,6 +2405,882 @@
     </rPh>
     <rPh sb="83" eb="84">
       <t>ke h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级代理商发起申请下级代理商的账号，［包括：手机号码，姓名，上级代理商（选择），收货地址、身份证号、注册时间（系统）、身份证正反面照片上传、银行账户、开户行、户名</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>fa qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shen q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入阿里大于进行短信sdk测试</t>
+    <rPh sb="0" eb="1">
+      <t>jie ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>a li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jin x</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duan x</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ce shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择时间短、下级层级、下级代理商，查询订单清单，清单结果如上</t>
+    <rPh sb="0" eb="1">
+      <t>xuan z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xia ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ceng ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xia ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dai li</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>cha x</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ding d</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qing d</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>qing d</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jie g</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询下级所有代理商的销售清单；查询结果如上字段</t>
+    <rPh sb="0" eb="1">
+      <t>cha x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xia ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dai li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qing d</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cha x</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jie g</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zi duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <rPh sb="0" eb="1">
+      <t>xiang mu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人日</t>
+    <rPh sb="0" eb="1">
+      <t>ren ri</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析</t>
+    <rPh sb="0" eb="1">
+      <t>xu q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型设计</t>
+    <rPh sb="0" eb="1">
+      <t>yuan x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码开发</t>
+    <rPh sb="0" eb="1">
+      <t>dai m</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai f</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目测试</t>
+    <rPh sb="0" eb="1">
+      <t>xiang m</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户测试</t>
+    <rPh sb="0" eb="1">
+      <t>yong h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部署</t>
+    <rPh sb="0" eb="1">
+      <t>xiang m</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算人日</t>
+    <rPh sb="0" eb="1">
+      <t>jie s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren ri</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>900/人日</t>
+    <rPh sb="4" eb="5">
+      <t>ren ri</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户培训</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：服务器租赁、域名、短信服务费、图片服务器用由淑格自行提供；可代为操作</t>
+    <rPh sb="0" eb="1">
+      <t>bei z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu w q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zu l</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu m</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>duan x</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fu w</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fei y</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tu p</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fu w</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>you</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shu ge</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zi xing</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ti g</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>dai wei</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>cao z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置产品佣金金额，目前只有两层；［录入数据包括：产品（选择已配置的产品），层级（1～2），酬金额度（30元、10元）］</t>
+    <rPh sb="0" eb="1">
+      <t>pei zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong jin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jin' e</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mu q</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>lu ru</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shu j</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bao k</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xuan z</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>pei zhi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>d</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ceng ji</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>chou jin</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>e' du</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对代理商提交的订单进行审核确认，审核订单记录提交的打款水单和产品类型、产品总额；</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dai l s</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti j</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ding d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jin x</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shen h</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>que ren</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shen h</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ding d</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ji lu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ti j</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>d</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>da kuan</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shui dan</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>he</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>lei x</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zong e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询自己录入的订单，查询其审核状态</t>
+    <rPh sb="0" eb="1">
+      <t>cha x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lu ru</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ding d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cha x</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shen h</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhuang t</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>H5代理商用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户帐号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>［</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>包括：手机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，姓名，上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>代理商（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>），收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>货地址、身份证号、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>册时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>（系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）、身份证正反面照片上传、银行账户、开户行、户名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>］，包括微信端提交的审核</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>wei h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dai li s</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yong h</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhang hao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xin x</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bao k</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shou ji</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>hao m</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xing m</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shang ji</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>dai l s</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xuan z</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhu c</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shi j</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>shen f z</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>zheng f</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>mian</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>zhao p</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>shang c</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>yin h</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>zhang h</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>kai h</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>hang</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>hu ming</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>bao k</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>wei x n</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ti j</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>d</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>shen h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>品配置，新增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>品名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品数量选择配置</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ming c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有的订单，查询字段包括代理商、订单起止时间、产品、订单状态</t>
+    <rPh sb="0" eb="1">
+      <t>cha x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ding d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cha x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi d</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bao k</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dai l s</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ding d</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>qi zhi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shi j</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ding d</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhuang t</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3277,7 +3292,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3350,8 +3365,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3370,13 +3399,81 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor theme="7" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3430,7 +3527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3440,12 +3537,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3453,9 +3544,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="30" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3476,11 +3564,32 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="30" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -3501,215 +3610,7 @@
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="40" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="40" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="微軟正黑體"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3859,6 +3760,257 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="微軟正黑體"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4001,32 +4153,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:B12"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="名词" dataDxfId="27"/>
-    <tableColumn id="2" name="解释" dataDxfId="26"/>
+    <tableColumn id="1" name="名词" dataDxfId="29"/>
+    <tableColumn id="2" name="解释" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L29" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L29"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="优先级" dataDxfId="11"/>
-    <tableColumn id="12" name="应用" dataDxfId="10"/>
-    <tableColumn id="9" name="角色" dataDxfId="9"/>
-    <tableColumn id="2" name="功能" dataDxfId="8"/>
-    <tableColumn id="3" name="内容" dataDxfId="7"/>
-    <tableColumn id="8" name="修改意见" dataDxfId="6"/>
-    <tableColumn id="4" name="需求确认人" dataDxfId="5"/>
-    <tableColumn id="7" name="状态" dataDxfId="4"/>
-    <tableColumn id="10" name="人日" dataDxfId="3"/>
-    <tableColumn id="5" name="开始时间" dataDxfId="2"/>
-    <tableColumn id="6" name="结束时间" dataDxfId="1"/>
-    <tableColumn id="11" name="备注" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H30" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:H30"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="优先级" dataDxfId="25"/>
+    <tableColumn id="12" name="应用" dataDxfId="24"/>
+    <tableColumn id="9" name="角色" dataDxfId="23"/>
+    <tableColumn id="2" name="功能" dataDxfId="22"/>
+    <tableColumn id="3" name="内容" dataDxfId="21"/>
+    <tableColumn id="7" name="状态" dataDxfId="20"/>
+    <tableColumn id="10" name="人日" dataDxfId="19"/>
+    <tableColumn id="11" name="备注" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:D9" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:D9"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="项目" dataDxfId="15"/>
+    <tableColumn id="2" name="人日" dataDxfId="14"/>
+    <tableColumn id="5" name="结算人日" dataDxfId="13"/>
+    <tableColumn id="3" name="备注" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4322,7 +4483,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4332,94 +4493,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>19</v>
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="23" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="23" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="22" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="10"/>
+      <c r="A9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="22" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>74</v>
+      <c r="A10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="22" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>75</v>
+      <c r="B11" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="22" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4432,768 +4593,711 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.83203125" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="15.1640625" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="80.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="69" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="46" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="46" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="69" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="46" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="46" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="46" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="46" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="46" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="46" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="69" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="46" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="61" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="H27" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="69" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="5" t="s">
-        <v>66</v>
-      </c>
+    <row r="28" spans="1:8" s="12" customFormat="1" ht="69" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="46" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="46" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="69" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="69" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="69" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="46" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="46" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="69" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="46" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" ht="46" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" ht="46" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" ht="69" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" ht="46" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" ht="61" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" s="16" customFormat="1" ht="92" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" ht="23" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="5"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="23" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H11 H16:H1048576 H13:H14">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+  <conditionalFormatting sqref="F1:F11 F17:F1048576 F13:F15">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"未开始"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H11 H16:H1048576 H13:H14">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+  <conditionalFormatting sqref="F1:F11 F17:F1048576 F13:F15">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"拒绝"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"未开始"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"拒绝"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"未开始"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"拒绝"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F31:F1048576">
       <formula1>"未开始,进行中,开发完成,测试完成,设计完成,拒绝"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
@@ -5204,6 +5308,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>"优先级,高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F30">
+      <formula1>"已确认,未确认,待定"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5228,4 +5335,158 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="23" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="23" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2">
+        <f>SUM(Table1[人日])</f>
+        <v>36.5</v>
+      </c>
+      <c r="C4" s="2">
+        <f>表3[[#This Row],[人日]]</f>
+        <v>36.5</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="23" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="23" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="23" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="23" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="23" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="14">
+        <f>SUM(C2:C8)*900</f>
+        <v>36450</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:D12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>